--- a/importEmpTemplates/ImportXLSX_ShortTemplate.xlsx
+++ b/importEmpTemplates/ImportXLSX_ShortTemplate.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26006"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C42E536B-5F9A-4092-BC3F-CBF2550ADDDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\Users\vyerra\Desktop\QA_Automation_July3\importEmpTemplates\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A714E5D4-742E-4BBE-B4F1-D5F020A8D82C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <r>
       <rPr>
@@ -172,13 +177,31 @@
       </rPr>
       <t>*</t>
     </r>
+  </si>
+  <si>
+    <t>NF</t>
+  </si>
+  <si>
+    <t>NL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alias </t>
+  </si>
+  <si>
+    <t>Marketing</t>
+  </si>
+  <si>
+    <t>15QP5A9</t>
+  </si>
+  <si>
+    <t>syerra@revealdata.io</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -255,7 +278,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -543,7 +566,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -553,23 +576,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="18.1328125" customWidth="1"/>
+    <col min="2" max="2" width="23.265625" customWidth="1"/>
+    <col min="3" max="3" width="18.265625" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="28.28515625" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" customWidth="1"/>
-    <col min="7" max="7" width="19.5703125" customWidth="1"/>
-    <col min="8" max="8" width="20.5703125" customWidth="1"/>
+    <col min="5" max="5" width="28.265625" customWidth="1"/>
+    <col min="6" max="6" width="18.73046875" customWidth="1"/>
+    <col min="7" max="7" width="19.59765625" customWidth="1"/>
+    <col min="8" max="8" width="20.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -595,9 +618,31 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="B2" s="2"/>
-      <c r="E2" s="3"/>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="b">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -608,6 +653,9 @@
       <formula1>"True, False"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{CF4D8631-66CA-462C-BDB6-431C28FB51C2}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/importEmpTemplates/ImportXLSX_ShortTemplate.xlsx
+++ b/importEmpTemplates/ImportXLSX_ShortTemplate.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\Users\vyerra\Desktop\QA_Automation_July3\importEmpTemplates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\Users\vyerra\Desktop\July24Code\importEmpTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A714E5D4-742E-4BBE-B4F1-D5F020A8D82C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9063F042-3A9C-484E-9A18-574366BD62F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -191,10 +191,10 @@
     <t>Marketing</t>
   </si>
   <si>
-    <t>15QP5A9</t>
-  </si>
-  <si>
-    <t>syerra@revealdata.io</t>
+    <t>5A915</t>
+  </si>
+  <si>
+    <t>vyyerra@revealdata.io</t>
   </si>
 </sst>
 </file>
@@ -576,8 +576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
